--- a/src/documents/цены.xlsx
+++ b/src/documents/цены.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Telegram Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675BDCC-ABE3-4B08-9191-86539642FED4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>Учёт текущих, прогнозируемых и исторических пробок.</t>
   </si>
@@ -64,12 +70,15 @@
   </si>
   <si>
     <t xml:space="preserve">нет </t>
+  </si>
+  <si>
+    <t>Поиск по названиям улиц</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,14 +159,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,9 +207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +294,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,21 +486,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="90.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
@@ -471,12 +517,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -487,7 +533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -542,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,85 +599,90 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -642,24 +693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
